--- a/Testing Results/SPR vs Voltage.xlsx
+++ b/Testing Results/SPR vs Voltage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mason\Smart-Farming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mason\Smart-Farming\Testing Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDCC6CB-4122-457E-B5C2-C361D913CB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60100615-99F0-42C0-8DDC-320D10C9FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="0" windowWidth="12660" windowHeight="16010" xr2:uid="{7949D316-B63E-4BD5-B16F-A7D34FF46E19}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25140" windowHeight="16100" xr2:uid="{7949D316-B63E-4BD5-B16F-A7D34FF46E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>SPR</t>
   </si>
   <si>
     <t>V</t>
   </si>
+  <si>
+    <t>SPR 60</t>
+  </si>
+  <si>
+    <t>SPR 80</t>
+  </si>
+  <si>
+    <t>SPR 100</t>
+  </si>
+  <si>
+    <t>SPR 35</t>
+  </si>
+  <si>
+    <t>SPR 25</t>
+  </si>
+  <si>
+    <t>SPR 15</t>
+  </si>
+  <si>
+    <t>y=0.188321x-0.0266254</t>
+  </si>
+  <si>
+    <t>Variac 2</t>
+  </si>
+  <si>
+    <t>VARIAC 3</t>
+  </si>
+  <si>
+    <t>VARIAC 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +86,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,8 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,47 +466,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05839395-F054-4FC0-8E83-545263F40383}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:Q233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>55</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>45</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>35</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25</v>
       </c>
@@ -461,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15</v>
       </c>
@@ -469,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -477,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
@@ -485,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>75</v>
       </c>
@@ -493,7 +570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>85</v>
       </c>
@@ -501,7 +578,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>95</v>
       </c>
@@ -509,7 +586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>105</v>
       </c>
@@ -517,7 +594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>150</v>
       </c>
@@ -525,7 +602,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>200</v>
       </c>
@@ -533,7 +610,2609 @@
         <v>37</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>105</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>106</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>4</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>102</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>22</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>34</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>93</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>40</v>
+      </c>
+      <c r="P19" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>91</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>47</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2">
+        <v>83</v>
+      </c>
+      <c r="N20" s="1">
+        <v>4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>58</v>
+      </c>
+      <c r="P20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>73</v>
+      </c>
+      <c r="N21" s="1">
+        <v>5</v>
+      </c>
+      <c r="O21" s="1">
+        <v>73</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>61</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1">
+        <v>86</v>
+      </c>
+      <c r="P22" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>67</v>
+      </c>
+      <c r="F23" s="1">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>83</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>48</v>
+      </c>
+      <c r="N23" s="1">
+        <v>7</v>
+      </c>
+      <c r="O23" s="1">
+        <v>97</v>
+      </c>
+      <c r="P23" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>93</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>34</v>
+      </c>
+      <c r="N24" s="1">
+        <v>8</v>
+      </c>
+      <c r="O24" s="1">
+        <v>105</v>
+      </c>
+      <c r="P24" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1">
+        <v>9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>101</v>
+      </c>
+      <c r="H25" s="2">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>89</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>106</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>95</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1">
+        <v>101</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>105</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>106</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>105</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>103</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>101</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>97</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>95</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>92</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>52</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>57</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43">
+        <v>87</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>84</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>69</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>81</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>74</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>78</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>79</v>
+      </c>
+      <c r="F47">
+        <v>13</v>
+      </c>
+      <c r="G47">
+        <v>74</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>71</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>89</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>67</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>92</v>
+      </c>
+      <c r="F50">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>63</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>56</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>102</v>
+      </c>
+      <c r="F53">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>105</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>47</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>21</v>
+      </c>
+      <c r="G55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>22</v>
+      </c>
+      <c r="G56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F57">
+        <v>23</v>
+      </c>
+      <c r="G57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>24</v>
+      </c>
+      <c r="G58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>27</v>
+      </c>
+      <c r="G61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>28</v>
+      </c>
+      <c r="G62">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>29</v>
+      </c>
+      <c r="G63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>21</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>28</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>47</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>35</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>59</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
+        <v>42</v>
+      </c>
+      <c r="I75">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>71</v>
+      </c>
+      <c r="F76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <v>49</v>
+      </c>
+      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="J76">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77">
+        <v>83</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>56</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78">
+        <v>63</v>
+      </c>
+      <c r="I78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>106</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>70</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>118</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>130</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>85</v>
+      </c>
+      <c r="I81">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>118</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82">
+        <v>92</v>
+      </c>
+      <c r="I82">
+        <v>12</v>
+      </c>
+      <c r="J82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>106</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83">
+        <v>99</v>
+      </c>
+      <c r="I83">
+        <v>13</v>
+      </c>
+      <c r="J83">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>95</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <v>106</v>
+      </c>
+      <c r="I84">
+        <v>14</v>
+      </c>
+      <c r="J84">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85">
+        <v>113</v>
+      </c>
+      <c r="I85">
+        <v>15</v>
+      </c>
+      <c r="J85">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>71</v>
+      </c>
+      <c r="F86">
+        <v>16</v>
+      </c>
+      <c r="G86">
+        <v>120</v>
+      </c>
+      <c r="I86">
+        <v>16</v>
+      </c>
+      <c r="J86">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87">
+        <v>59</v>
+      </c>
+      <c r="F87">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>127</v>
+      </c>
+      <c r="I87">
+        <v>17</v>
+      </c>
+      <c r="J87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>47</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>120</v>
+      </c>
+      <c r="I88">
+        <v>18</v>
+      </c>
+      <c r="J88">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89">
+        <v>35</v>
+      </c>
+      <c r="F89">
+        <v>19</v>
+      </c>
+      <c r="G89">
+        <v>113</v>
+      </c>
+      <c r="I89">
+        <v>19</v>
+      </c>
+      <c r="J89">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90">
+        <v>23</v>
+      </c>
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <v>107</v>
+      </c>
+      <c r="I90">
+        <v>20</v>
+      </c>
+      <c r="J90">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>21</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>21</v>
+      </c>
+      <c r="J91">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>22</v>
+      </c>
+      <c r="G92">
+        <v>92</v>
+      </c>
+      <c r="I92">
+        <v>22</v>
+      </c>
+      <c r="J92">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F93">
+        <v>23</v>
+      </c>
+      <c r="G93">
+        <v>85</v>
+      </c>
+      <c r="I93">
+        <v>23</v>
+      </c>
+      <c r="J93">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F94">
+        <v>24</v>
+      </c>
+      <c r="G94">
+        <v>78</v>
+      </c>
+      <c r="I94">
+        <v>24</v>
+      </c>
+      <c r="J94">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F95">
+        <v>25</v>
+      </c>
+      <c r="G95">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>25</v>
+      </c>
+      <c r="J95">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F96">
+        <v>26</v>
+      </c>
+      <c r="G96">
+        <v>64</v>
+      </c>
+      <c r="I96">
+        <v>26</v>
+      </c>
+      <c r="J96">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F97">
+        <v>27</v>
+      </c>
+      <c r="G97">
+        <v>57</v>
+      </c>
+      <c r="I97">
+        <v>27</v>
+      </c>
+      <c r="J97">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F98">
+        <v>28</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="I98">
+        <v>28</v>
+      </c>
+      <c r="J98">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F99">
+        <v>29</v>
+      </c>
+      <c r="G99">
+        <v>43</v>
+      </c>
+      <c r="I99">
+        <v>29</v>
+      </c>
+      <c r="J99">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100">
+        <v>36</v>
+      </c>
+      <c r="I100">
+        <v>30</v>
+      </c>
+      <c r="J100">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F101">
+        <v>31</v>
+      </c>
+      <c r="G101">
+        <v>29</v>
+      </c>
+      <c r="I101">
+        <v>31</v>
+      </c>
+      <c r="J101">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F102">
+        <v>32</v>
+      </c>
+      <c r="G102">
+        <v>22</v>
+      </c>
+      <c r="I102">
+        <v>32</v>
+      </c>
+      <c r="J102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F103">
+        <v>33</v>
+      </c>
+      <c r="G103">
+        <v>16</v>
+      </c>
+      <c r="I103">
+        <v>33</v>
+      </c>
+      <c r="J103">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F104">
+        <v>34</v>
+      </c>
+      <c r="G104">
+        <v>9</v>
+      </c>
+      <c r="J104">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F105">
+        <v>35</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J106">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J107">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J108">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J109">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J110">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J111">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="J112">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J113">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J114">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J115">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J116">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J118">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J119">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>23</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
+      </c>
+      <c r="H129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>35</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+      <c r="H130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>46</v>
+      </c>
+      <c r="E131">
+        <v>27</v>
+      </c>
+      <c r="H131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>58</v>
+      </c>
+      <c r="E132">
+        <v>34</v>
+      </c>
+      <c r="H132">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>70</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
+      </c>
+      <c r="H133">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>82</v>
+      </c>
+      <c r="E134">
+        <v>47</v>
+      </c>
+      <c r="H134">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>94</v>
+      </c>
+      <c r="E135">
+        <v>54</v>
+      </c>
+      <c r="H135">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>105</v>
+      </c>
+      <c r="E136">
+        <v>61</v>
+      </c>
+      <c r="H136">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>117</v>
+      </c>
+      <c r="E137">
+        <v>68</v>
+      </c>
+      <c r="H137">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>129</v>
+      </c>
+      <c r="E138">
+        <v>75</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>117</v>
+      </c>
+      <c r="E139">
+        <v>82</v>
+      </c>
+      <c r="H139">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>106</v>
+      </c>
+      <c r="E140">
+        <v>89</v>
+      </c>
+      <c r="H140">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>94</v>
+      </c>
+      <c r="E141">
+        <v>96</v>
+      </c>
+      <c r="H141">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>82</v>
+      </c>
+      <c r="E142">
+        <v>102</v>
+      </c>
+      <c r="H142">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>70</v>
+      </c>
+      <c r="E143">
+        <v>109</v>
+      </c>
+      <c r="H143">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>58</v>
+      </c>
+      <c r="E144">
+        <v>116</v>
+      </c>
+      <c r="H144">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>46</v>
+      </c>
+      <c r="E145">
+        <v>123</v>
+      </c>
+      <c r="H145">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>35</v>
+      </c>
+      <c r="E146">
+        <v>130</v>
+      </c>
+      <c r="H146">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>23</v>
+      </c>
+      <c r="E147">
+        <v>123</v>
+      </c>
+      <c r="H147">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="E148">
+        <v>116</v>
+      </c>
+      <c r="H148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>109</v>
+      </c>
+      <c r="H149">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>103</v>
+      </c>
+      <c r="H150">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>96</v>
+      </c>
+      <c r="H151">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E152">
+        <v>89</v>
+      </c>
+      <c r="H152">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E153">
+        <v>82</v>
+      </c>
+      <c r="H153">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E154">
+        <v>75</v>
+      </c>
+      <c r="H154">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E155">
+        <v>68</v>
+      </c>
+      <c r="H155">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E156">
+        <v>61</v>
+      </c>
+      <c r="H156">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E157">
+        <v>54</v>
+      </c>
+      <c r="H157">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E158">
+        <v>47</v>
+      </c>
+      <c r="H158">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E159">
+        <v>41</v>
+      </c>
+      <c r="H159">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E160">
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E161">
+        <v>27</v>
+      </c>
+      <c r="H161">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="162" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E162">
+        <v>20</v>
+      </c>
+      <c r="H162">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="H163">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E164">
+        <v>6</v>
+      </c>
+      <c r="H164">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="165" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H165">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H166">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="167" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="170" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H170">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="174" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H174">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H175">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H179">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>8</v>
+      </c>
+      <c r="E185">
+        <v>13</v>
+      </c>
+      <c r="H185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>20</v>
+      </c>
+      <c r="H186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>32</v>
+      </c>
+      <c r="E187">
+        <v>26</v>
+      </c>
+      <c r="H187">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>44</v>
+      </c>
+      <c r="E188">
+        <v>33</v>
+      </c>
+      <c r="H188">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>56</v>
+      </c>
+      <c r="E189">
+        <v>41</v>
+      </c>
+      <c r="H189">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>68</v>
+      </c>
+      <c r="E190">
+        <v>48</v>
+      </c>
+      <c r="H190">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>78</v>
+      </c>
+      <c r="E191">
+        <v>54</v>
+      </c>
+      <c r="H191">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>89</v>
+      </c>
+      <c r="E192">
+        <v>61</v>
+      </c>
+      <c r="H192">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>102</v>
+      </c>
+      <c r="E193">
+        <v>69</v>
+      </c>
+      <c r="H193">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>113</v>
+      </c>
+      <c r="E194">
+        <v>75</v>
+      </c>
+      <c r="H194">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>126</v>
+      </c>
+      <c r="E195">
+        <v>82</v>
+      </c>
+      <c r="H195">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>114</v>
+      </c>
+      <c r="E196">
+        <v>89</v>
+      </c>
+      <c r="H196">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>102</v>
+      </c>
+      <c r="E197">
+        <v>96</v>
+      </c>
+      <c r="H197">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>89</v>
+      </c>
+      <c r="E198">
+        <v>104</v>
+      </c>
+      <c r="H198">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>78</v>
+      </c>
+      <c r="E199">
+        <v>110</v>
+      </c>
+      <c r="H199">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>66</v>
+      </c>
+      <c r="E200">
+        <v>117</v>
+      </c>
+      <c r="H200">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>54</v>
+      </c>
+      <c r="E201">
+        <v>124</v>
+      </c>
+      <c r="H201">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>42</v>
+      </c>
+      <c r="E202">
+        <v>131</v>
+      </c>
+      <c r="H202">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>30</v>
+      </c>
+      <c r="E203">
+        <v>124</v>
+      </c>
+      <c r="H203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>18</v>
+      </c>
+      <c r="E204">
+        <v>117</v>
+      </c>
+      <c r="H204">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <v>110</v>
+      </c>
+      <c r="H205">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E206">
+        <v>104</v>
+      </c>
+      <c r="H206">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E207">
+        <v>96</v>
+      </c>
+      <c r="H207">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E208">
+        <v>89</v>
+      </c>
+      <c r="H208">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E209">
+        <v>82</v>
+      </c>
+      <c r="H209">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E210">
+        <v>76</v>
+      </c>
+      <c r="H210">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E211">
+        <v>69</v>
+      </c>
+      <c r="H211">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E212">
+        <v>61</v>
+      </c>
+      <c r="H212">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="213" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E213">
+        <v>54</v>
+      </c>
+      <c r="H213">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="214" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E214">
+        <v>48</v>
+      </c>
+      <c r="H214">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="215" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E215">
+        <v>41</v>
+      </c>
+      <c r="H215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E216">
+        <v>34</v>
+      </c>
+      <c r="H216">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="217" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E217">
+        <v>27</v>
+      </c>
+      <c r="H217">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E218">
+        <v>20</v>
+      </c>
+      <c r="H218">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E219">
+        <v>13</v>
+      </c>
+      <c r="H219">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="220" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E220">
+        <v>6</v>
+      </c>
+      <c r="H220">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="221" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H221">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H222">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H223">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="H224">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H225">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H226">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H227">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H228">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H229">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H230">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H231">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H232">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.35">
+      <c r="H233">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>